--- a/biology/Botanique/Indigofera_paniculata/Indigofera_paniculata.xlsx
+++ b/biology/Botanique/Indigofera_paniculata/Indigofera_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera paniculata est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera paniculata est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe annuelle (ou petit arbuste), avec plusieurs rameaux pouvant atteindre 1,4 m de hauteur, émergeant d'une racine pivotante[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe annuelle (ou petit arbuste), avec plusieurs rameaux pouvant atteindre 1,4 m de hauteur, émergeant d'une racine pivotante.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale où elle a été observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, au Zimbabwe et au Mozambique[2] .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale où elle a été observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, au Zimbabwe et au Mozambique .
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les savanes arborées, les pentes herbeuses, les terrains marécageux, les mares et les jachères[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les savanes arborées, les pentes herbeuses, les terrains marécageux, les mares et les jachères.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine traditionnelle, elle est récoltée à l'état sauvage pour soigner des affections rhino-pharyngées, également pour combattre la variole, la varicelle, la rougeole[2].
-Elle est également utilisée comme engrais vert[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine traditionnelle, elle est récoltée à l'état sauvage pour soigner des affections rhino-pharyngées, également pour combattre la variole, la varicelle, la rougeole.
+Elle est également utilisée comme engrais vert.
 </t>
         </is>
       </c>
@@ -636,14 +656,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 juin 2020)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 juin 2020) :
 sous-espèce Indigofera paniculata subsp. gazensis
 sous-espèce Indigofera paniculata subsp. paniculata
-Selon The Plant List            (19 juin 2020)[1] :
+Selon The Plant List            (19 juin 2020) :
 sous-espèce Indigofera paniculata subsp. gazensis (Baker f.) J.B.Gillett
-Selon Tropicos                                           (19 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Indigofera paniculata subsp. gazensis (Baker f.) J.B. Gillett
 sous-espèce Indigofera paniculata subsp. paniculata</t>
         </is>
